--- a/Script Estatística/RESULTADOS - Copia.xlsx
+++ b/Script Estatística/RESULTADOS - Copia.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
   <si>
     <t xml:space="preserve">STANDARD</t>
   </si>
@@ -67,28 +67,22 @@
     <t xml:space="preserve">DESVIO PADRÃO (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">media(s)</t>
+    <t xml:space="preserve">MÉDIA(s)</t>
   </si>
   <si>
     <t xml:space="preserve">TEMPO KERNEL</t>
   </si>
   <si>
-    <t xml:space="preserve">PADRÃO</t>
+    <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">COMPACTO</t>
+    <t xml:space="preserve">MEDIANA</t>
   </si>
   <si>
-    <t xml:space="preserve">IMG_R_COMPACTO</t>
+    <t xml:space="preserve">DESVIO PADRÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">IMG_RG_COMPACTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMG_RGBA_COMPACTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MÉDIA(s)</t>
+    <t xml:space="preserve">MÉDIA</t>
   </si>
 </sst>
 </file>
@@ -194,7 +188,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,10 +233,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,7 +254,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -288,6 +278,38 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -363,13 +385,15 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.99"/>
@@ -1205,11 +1229,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.76"/>
@@ -2040,20 +2064,22 @@
   </sheetPr>
   <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="17.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,7 +3335,7 @@
         <f aca="false">SUM(E2:E31)</f>
         <v>9264.7429</v>
       </c>
-      <c r="F32" s="11" t="n">
+      <c r="F32" s="10" t="n">
         <f aca="false">SUM(F2:F31)</f>
         <v>8751.1093</v>
       </c>
@@ -3331,10 +3357,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="0" t="n">
         <f aca="false">MEDIAN(C2:C31)</f>
         <v>336.9875</v>
@@ -3369,10 +3395,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="0" t="n">
         <f aca="false">STDEV(C2:C31)</f>
         <v>127.933390980853</v>
@@ -3407,10 +3433,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="0" t="n">
         <f aca="false">SUM(C2:C31)/COUNT(C2:C31)</f>
         <v>322.954613333333</v>
@@ -4999,7 +5025,7 @@
         <f aca="false">SUM(H41:H70)</f>
         <v>6543.7759</v>
       </c>
-      <c r="I71" s="11" t="n">
+      <c r="I71" s="10" t="n">
         <f aca="false">SUM(I41:I70)</f>
         <v>5926.1288</v>
       </c>
@@ -5007,14 +5033,14 @@
         <f aca="false">SUM(J41:J70)</f>
         <v>6135.168</v>
       </c>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="0" t="n">
         <f aca="false">MEDIAN(C41:C70)</f>
         <v>255.4438</v>
@@ -5049,10 +5075,10 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="12"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="0" t="n">
         <f aca="false">STDEV(C41:C70)</f>
         <v>121.106520440637</v>
@@ -5087,10 +5113,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="12"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="0" t="n">
         <f aca="false">SUM(C41:C70)/COUNT(C41:C70)</f>
         <v>242.570943333333</v>
@@ -5140,6 +5166,18 @@
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:B74"/>
   </mergeCells>
+  <conditionalFormatting sqref="C71:J71 C32:J32">
+    <cfRule type="top10" priority="2" aboveAverage="0" equalAverage="0" bottom="1" percent="0" rank="1" text="" dxfId="0"/>
+    <cfRule type="top10" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="1" text="" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:J32">
+    <cfRule type="top10" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="1" text="" dxfId="2"/>
+    <cfRule type="top10" priority="5" aboveAverage="0" equalAverage="0" bottom="1" percent="0" rank="1" text="" dxfId="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:J71">
+    <cfRule type="top10" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="1" text="" dxfId="2"/>
+    <cfRule type="top10" priority="7" aboveAverage="0" equalAverage="0" bottom="1" percent="0" rank="1" text="" dxfId="3"/>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5157,14 +5195,17 @@
   </sheetPr>
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J71" activeCellId="0" sqref="J71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="17.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.79"/>
@@ -5176,10 +5217,10 @@
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -5191,13 +5232,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5207,35 +5248,35 @@
       <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="12" t="n">
         <f aca="false">Dados!C2/Dados!$L2</f>
         <v>0.987504257959539</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="12" t="n">
         <f aca="false">Dados!D2/Dados!$L2</f>
         <v>0.919862731546014</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="12" t="n">
         <f aca="false">Dados!E2/Dados!$L2</f>
         <v>0.954370996820007</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="12" t="n">
         <f aca="false">Dados!F2/Dados!$L2</f>
         <v>0.90439275375828</v>
       </c>
-      <c r="G2" s="13" t="n">
+      <c r="G2" s="12" t="n">
         <f aca="false">Dados!G2/Dados!$L2</f>
         <v>0.89455767263905</v>
       </c>
-      <c r="H2" s="13" t="n">
+      <c r="H2" s="12" t="n">
         <f aca="false">Dados!H2/Dados!$L2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="13" t="n">
+      <c r="I2" s="12" t="n">
         <f aca="false">Dados!I2/Dados!$L2</f>
         <v>0.946840905449458</v>
       </c>
-      <c r="J2" s="13" t="n">
+      <c r="J2" s="12" t="n">
         <f aca="false">Dados!J2/Dados!$L2</f>
         <v>0.971925173314525</v>
       </c>
@@ -5247,35 +5288,35 @@
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="12" t="n">
         <f aca="false">Dados!C3/Dados!$L3</f>
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="12" t="n">
         <f aca="false">Dados!D3/Dados!$L3</f>
         <v>0.884839355527345</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="12" t="n">
         <f aca="false">Dados!E3/Dados!$L3</f>
         <v>0.944965880700197</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="12" t="n">
         <f aca="false">Dados!F3/Dados!$L3</f>
         <v>0.887884513185307</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="12" t="n">
         <f aca="false">Dados!G3/Dados!$L3</f>
         <v>0.877997450187988</v>
       </c>
-      <c r="H3" s="13" t="n">
+      <c r="H3" s="12" t="n">
         <f aca="false">Dados!H3/Dados!$L3</f>
         <v>0.955884688225481</v>
       </c>
-      <c r="I3" s="13" t="n">
+      <c r="I3" s="12" t="n">
         <f aca="false">Dados!I3/Dados!$L3</f>
         <v>0.887630975614377</v>
       </c>
-      <c r="J3" s="13" t="n">
+      <c r="J3" s="12" t="n">
         <f aca="false">Dados!J3/Dados!$L3</f>
         <v>0.910846806464216</v>
       </c>
@@ -5287,35 +5328,35 @@
       <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="12" t="n">
         <f aca="false">Dados!C4/Dados!$L4</f>
         <v>0.896273976500335</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="12" t="n">
         <f aca="false">Dados!D4/Dados!$L4</f>
         <v>0.906494123617068</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="12" t="n">
         <f aca="false">Dados!E4/Dados!$L4</f>
         <v>0.894944484735777</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="12" t="n">
         <f aca="false">Dados!F4/Dados!$L4</f>
         <v>0.866765565796643</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="12" t="n">
         <f aca="false">Dados!G4/Dados!$L4</f>
         <v>0.855214460294542</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="12" t="n">
         <f aca="false">Dados!H4/Dados!$L4</f>
         <v>0.999335620772924</v>
       </c>
-      <c r="I4" s="13" t="n">
+      <c r="I4" s="12" t="n">
         <f aca="false">Dados!I4/Dados!$L4</f>
         <v>0.970284062451647</v>
       </c>
-      <c r="J4" s="13" t="n">
+      <c r="J4" s="12" t="n">
         <f aca="false">Dados!J4/Dados!$L4</f>
         <v>1</v>
       </c>
@@ -5327,35 +5368,35 @@
       <c r="B5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="12" t="n">
         <f aca="false">Dados!C5/Dados!$L5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="12" t="n">
         <f aca="false">Dados!D5/Dados!$L5</f>
         <v>0.902990935219987</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="12" t="n">
         <f aca="false">Dados!E5/Dados!$L5</f>
         <v>0.953800280050114</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="12" t="n">
         <f aca="false">Dados!F5/Dados!$L5</f>
         <v>0.900867565774928</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="12" t="n">
         <f aca="false">Dados!G5/Dados!$L5</f>
         <v>0.888986660770875</v>
       </c>
-      <c r="H5" s="13" t="n">
+      <c r="H5" s="12" t="n">
         <f aca="false">Dados!H5/Dados!$L5</f>
         <v>0.978073550003685</v>
       </c>
-      <c r="I5" s="13" t="n">
+      <c r="I5" s="12" t="n">
         <f aca="false">Dados!I5/Dados!$L5</f>
         <v>0.912189844498489</v>
       </c>
-      <c r="J5" s="13" t="n">
+      <c r="J5" s="12" t="n">
         <f aca="false">Dados!J5/Dados!$L5</f>
         <v>0.937887537769917</v>
       </c>
@@ -5367,35 +5408,35 @@
       <c r="B6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="12" t="n">
         <f aca="false">Dados!C6/Dados!$L6</f>
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="12" t="n">
         <f aca="false">Dados!D6/Dados!$L6</f>
         <v>0.879276124056757</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="12" t="n">
         <f aca="false">Dados!E6/Dados!$L6</f>
         <v>0.942300038857831</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="12" t="n">
         <f aca="false">Dados!F6/Dados!$L6</f>
         <v>0.883820962546065</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="12" t="n">
         <f aca="false">Dados!G6/Dados!$L6</f>
         <v>0.874421833086816</v>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H6" s="12" t="n">
         <f aca="false">Dados!H6/Dados!$L6</f>
         <v>0.946594965090626</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="12" t="n">
         <f aca="false">Dados!I6/Dados!$L6</f>
         <v>0.878224769046604</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="12" t="n">
         <f aca="false">Dados!J6/Dados!$L6</f>
         <v>0.902203223319712</v>
       </c>
@@ -5407,35 +5448,35 @@
       <c r="B7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <f aca="false">Dados!C7/Dados!$L7</f>
         <v>0.872750326451051</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="12" t="n">
         <f aca="false">Dados!D7/Dados!$L7</f>
         <v>0.912180222772376</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="12" t="n">
         <f aca="false">Dados!E7/Dados!$L7</f>
         <v>0.920883290236633</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="12" t="n">
         <f aca="false">Dados!F7/Dados!$L7</f>
         <v>0.888206643945559</v>
       </c>
-      <c r="G7" s="13" t="n">
+      <c r="G7" s="12" t="n">
         <f aca="false">Dados!G7/Dados!$L7</f>
         <v>0.877729816092073</v>
       </c>
-      <c r="H7" s="13" t="n">
+      <c r="H7" s="12" t="n">
         <f aca="false">Dados!H7/Dados!$L7</f>
         <v>1</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="12" t="n">
         <f aca="false">Dados!I7/Dados!$L7</f>
         <v>0.958745877426447</v>
       </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="12" t="n">
         <f aca="false">Dados!J7/Dados!$L7</f>
         <v>0.987495362015148</v>
       </c>
@@ -5447,35 +5488,35 @@
       <c r="B8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <f aca="false">Dados!C8/Dados!$L8</f>
         <v>1</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="12" t="n">
         <f aca="false">Dados!D8/Dados!$L8</f>
         <v>0.90167652078315</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="12" t="n">
         <f aca="false">Dados!E8/Dados!$L8</f>
         <v>0.954646754108578</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="12" t="n">
         <f aca="false">Dados!F8/Dados!$L8</f>
         <v>0.900128712772821</v>
       </c>
-      <c r="G8" s="13" t="n">
+      <c r="G8" s="12" t="n">
         <f aca="false">Dados!G8/Dados!$L8</f>
         <v>0.889542079674141</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="12" t="n">
         <f aca="false">Dados!H8/Dados!$L8</f>
         <v>0.979462612872302</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="12" t="n">
         <f aca="false">Dados!I8/Dados!$L8</f>
         <v>0.913646718246203</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="12" t="n">
         <f aca="false">Dados!J8/Dados!$L8</f>
         <v>0.939866935523972</v>
       </c>
@@ -5487,35 +5528,35 @@
       <c r="B9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <f aca="false">Dados!C9/Dados!$L9</f>
         <v>1</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="12" t="n">
         <f aca="false">Dados!D9/Dados!$L9</f>
         <v>0.902941112529665</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="12" t="n">
         <f aca="false">Dados!E9/Dados!$L9</f>
         <v>0.952949168210052</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="12" t="n">
         <f aca="false">Dados!F9/Dados!$L9</f>
         <v>0.899313524995987</v>
       </c>
-      <c r="G9" s="13" t="n">
+      <c r="G9" s="12" t="n">
         <f aca="false">Dados!G9/Dados!$L9</f>
         <v>0.888773836103088</v>
       </c>
-      <c r="H9" s="13" t="n">
+      <c r="H9" s="12" t="n">
         <f aca="false">Dados!H9/Dados!$L9</f>
         <v>0.978623112982928</v>
       </c>
-      <c r="I9" s="13" t="n">
+      <c r="I9" s="12" t="n">
         <f aca="false">Dados!I9/Dados!$L9</f>
         <v>0.913075188236384</v>
       </c>
-      <c r="J9" s="13" t="n">
+      <c r="J9" s="12" t="n">
         <f aca="false">Dados!J9/Dados!$L9</f>
         <v>0.940773029641628</v>
       </c>
@@ -5527,35 +5568,35 @@
       <c r="B10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="12" t="n">
         <f aca="false">Dados!C10/Dados!$L10</f>
         <v>0.998480036470007</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="12" t="n">
         <f aca="false">Dados!D10/Dados!$L10</f>
         <v>0.92009763324849</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="12" t="n">
         <f aca="false">Dados!E10/Dados!$L10</f>
         <v>0.959256543707024</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="12" t="n">
         <f aca="false">Dados!F10/Dados!$L10</f>
         <v>0.909360635185959</v>
       </c>
-      <c r="G10" s="13" t="n">
+      <c r="G10" s="12" t="n">
         <f aca="false">Dados!G10/Dados!$L10</f>
         <v>0.899032025225088</v>
       </c>
-      <c r="H10" s="13" t="n">
+      <c r="H10" s="12" t="n">
         <f aca="false">Dados!H10/Dados!$L10</f>
         <v>1</v>
       </c>
-      <c r="I10" s="13" t="n">
+      <c r="I10" s="12" t="n">
         <f aca="false">Dados!I10/Dados!$L10</f>
         <v>0.939973787182312</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="12" t="n">
         <f aca="false">Dados!J10/Dados!$L10</f>
         <v>0.967074421608479</v>
       </c>
@@ -5567,35 +5608,35 @@
       <c r="B11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="12" t="n">
         <f aca="false">Dados!C11/Dados!$L11</f>
         <v>1</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="12" t="n">
         <f aca="false">Dados!D11/Dados!$L11</f>
         <v>0.88915774001522</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="12" t="n">
         <f aca="false">Dados!E11/Dados!$L11</f>
         <v>0.947784400604167</v>
       </c>
-      <c r="F11" s="13" t="n">
+      <c r="F11" s="12" t="n">
         <f aca="false">Dados!F11/Dados!$L11</f>
         <v>0.891312546114058</v>
       </c>
-      <c r="G11" s="13" t="n">
+      <c r="G11" s="12" t="n">
         <f aca="false">Dados!G11/Dados!$L11</f>
         <v>0.881785043786626</v>
       </c>
-      <c r="H11" s="13" t="n">
+      <c r="H11" s="12" t="n">
         <f aca="false">Dados!H11/Dados!$L11</f>
         <v>0.961475447040781</v>
       </c>
-      <c r="I11" s="13" t="n">
+      <c r="I11" s="12" t="n">
         <f aca="false">Dados!I11/Dados!$L11</f>
         <v>0.893475319563177</v>
       </c>
-      <c r="J11" s="13" t="n">
+      <c r="J11" s="12" t="n">
         <f aca="false">Dados!J11/Dados!$L11</f>
         <v>0.918869437823764</v>
       </c>
@@ -5607,35 +5648,35 @@
       <c r="B12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="12" t="n">
         <f aca="false">Dados!C12/Dados!$L12</f>
         <v>0.996675354854306</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="12" t="n">
         <f aca="false">Dados!D12/Dados!$L12</f>
         <v>0.919560119074308</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="12" t="n">
         <f aca="false">Dados!E12/Dados!$L12</f>
         <v>0.95894821593233</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="12" t="n">
         <f aca="false">Dados!F12/Dados!$L12</f>
         <v>0.908108087032636</v>
       </c>
-      <c r="G12" s="13" t="n">
+      <c r="G12" s="12" t="n">
         <f aca="false">Dados!G12/Dados!$L12</f>
         <v>0.898664800363383</v>
       </c>
-      <c r="H12" s="13" t="n">
+      <c r="H12" s="12" t="n">
         <f aca="false">Dados!H12/Dados!$L12</f>
         <v>1</v>
       </c>
-      <c r="I12" s="13" t="n">
+      <c r="I12" s="12" t="n">
         <f aca="false">Dados!I12/Dados!$L12</f>
         <v>0.939435469249859</v>
       </c>
-      <c r="J12" s="13" t="n">
+      <c r="J12" s="12" t="n">
         <f aca="false">Dados!J12/Dados!$L12</f>
         <v>0.966204964548685</v>
       </c>
@@ -5647,35 +5688,35 @@
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="12" t="n">
         <f aca="false">Dados!C13/Dados!$L13</f>
         <v>1</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="12" t="n">
         <f aca="false">Dados!D13/Dados!$L13</f>
         <v>0.883383036551252</v>
       </c>
-      <c r="E13" s="13" t="n">
+      <c r="E13" s="12" t="n">
         <f aca="false">Dados!E13/Dados!$L13</f>
         <v>0.944919900994747</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="12" t="n">
         <f aca="false">Dados!F13/Dados!$L13</f>
         <v>0.886399557623783</v>
       </c>
-      <c r="G13" s="13" t="n">
+      <c r="G13" s="12" t="n">
         <f aca="false">Dados!G13/Dados!$L13</f>
         <v>0.877542313909684</v>
       </c>
-      <c r="H13" s="13" t="n">
+      <c r="H13" s="12" t="n">
         <f aca="false">Dados!H13/Dados!$L13</f>
         <v>0.950932470418469</v>
       </c>
-      <c r="I13" s="13" t="n">
+      <c r="I13" s="12" t="n">
         <f aca="false">Dados!I13/Dados!$L13</f>
         <v>0.882568056805805</v>
       </c>
-      <c r="J13" s="13" t="n">
+      <c r="J13" s="12" t="n">
         <f aca="false">Dados!J13/Dados!$L13</f>
         <v>0.906232661517881</v>
       </c>
@@ -5687,35 +5728,35 @@
       <c r="B14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="n">
+      <c r="C14" s="12" t="n">
         <f aca="false">Dados!C14/Dados!$L14</f>
         <v>0.896733910770849</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="12" t="n">
         <f aca="false">Dados!D14/Dados!$L14</f>
         <v>0.911331525225624</v>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="12" t="n">
         <f aca="false">Dados!E14/Dados!$L14</f>
         <v>0.894704795638589</v>
       </c>
-      <c r="F14" s="13" t="n">
+      <c r="F14" s="12" t="n">
         <f aca="false">Dados!F14/Dados!$L14</f>
         <v>0.866596062953</v>
       </c>
-      <c r="G14" s="13" t="n">
+      <c r="G14" s="12" t="n">
         <f aca="false">Dados!G14/Dados!$L14</f>
         <v>0.855783015208722</v>
       </c>
-      <c r="H14" s="13" t="n">
+      <c r="H14" s="12" t="n">
         <f aca="false">Dados!H14/Dados!$L14</f>
         <v>1</v>
       </c>
-      <c r="I14" s="13" t="n">
+      <c r="I14" s="12" t="n">
         <f aca="false">Dados!I14/Dados!$L14</f>
         <v>0.971782246874191</v>
       </c>
-      <c r="J14" s="13" t="n">
+      <c r="J14" s="12" t="n">
         <f aca="false">Dados!J14/Dados!$L14</f>
         <v>0.990520413150387</v>
       </c>
@@ -5727,35 +5768,35 @@
       <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="12" t="n">
         <f aca="false">Dados!C15/Dados!$L15</f>
         <v>1</v>
       </c>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="12" t="n">
         <f aca="false">Dados!D15/Dados!$L15</f>
         <v>0.906240301835836</v>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="12" t="n">
         <f aca="false">Dados!E15/Dados!$L15</f>
         <v>0.955517858087928</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="12" t="n">
         <f aca="false">Dados!F15/Dados!$L15</f>
         <v>0.902738863336798</v>
       </c>
-      <c r="G15" s="13" t="n">
+      <c r="G15" s="12" t="n">
         <f aca="false">Dados!G15/Dados!$L15</f>
         <v>0.892091747020834</v>
       </c>
-      <c r="H15" s="13" t="n">
+      <c r="H15" s="12" t="n">
         <f aca="false">Dados!H15/Dados!$L15</f>
         <v>0.98335023873729</v>
       </c>
-      <c r="I15" s="13" t="n">
+      <c r="I15" s="12" t="n">
         <f aca="false">Dados!I15/Dados!$L15</f>
         <v>0.9190638780005</v>
       </c>
-      <c r="J15" s="13" t="n">
+      <c r="J15" s="12" t="n">
         <f aca="false">Dados!J15/Dados!$L15</f>
         <v>0.943253271970736</v>
       </c>
@@ -5767,35 +5808,35 @@
       <c r="B16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <f aca="false">Dados!C16/Dados!$L16</f>
         <v>1</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <f aca="false">Dados!D16/Dados!$L16</f>
         <v>0.881645133158263</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <f aca="false">Dados!E16/Dados!$L16</f>
         <v>0.944001269240749</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <f aca="false">Dados!F16/Dados!$L16</f>
         <v>0.88561721312043</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <f aca="false">Dados!G16/Dados!$L16</f>
         <v>0.876421327643746</v>
       </c>
-      <c r="H16" s="13" t="n">
+      <c r="H16" s="12" t="n">
         <f aca="false">Dados!H16/Dados!$L16</f>
         <v>0.950148084876198</v>
       </c>
-      <c r="I16" s="13" t="n">
+      <c r="I16" s="12" t="n">
         <f aca="false">Dados!I16/Dados!$L16</f>
         <v>0.881449003690818</v>
       </c>
-      <c r="J16" s="13" t="n">
+      <c r="J16" s="12" t="n">
         <f aca="false">Dados!J16/Dados!$L16</f>
         <v>0.905856226306114</v>
       </c>
@@ -5807,35 +5848,35 @@
       <c r="B17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="12" t="n">
         <f aca="false">Dados!C17/Dados!$L17</f>
         <v>0.906749829663069</v>
       </c>
-      <c r="D17" s="13" t="n">
+      <c r="D17" s="12" t="n">
         <f aca="false">Dados!D17/Dados!$L17</f>
         <v>0.913634748025332</v>
       </c>
-      <c r="E17" s="13" t="n">
+      <c r="E17" s="12" t="n">
         <f aca="false">Dados!E17/Dados!$L17</f>
         <v>0.922820543401378</v>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F17" s="12" t="n">
         <f aca="false">Dados!F17/Dados!$L17</f>
         <v>0.886928751338783</v>
       </c>
-      <c r="G17" s="13" t="n">
+      <c r="G17" s="12" t="n">
         <f aca="false">Dados!G17/Dados!$L17</f>
         <v>0.876458786728716</v>
       </c>
-      <c r="H17" s="13" t="n">
+      <c r="H17" s="12" t="n">
         <f aca="false">Dados!H17/Dados!$L17</f>
         <v>1</v>
       </c>
-      <c r="I17" s="13" t="n">
+      <c r="I17" s="12" t="n">
         <f aca="false">Dados!I17/Dados!$L17</f>
         <v>0.961943718552614</v>
       </c>
-      <c r="J17" s="13" t="n">
+      <c r="J17" s="12" t="n">
         <f aca="false">Dados!J17/Dados!$L17</f>
         <v>0.99177895521172</v>
       </c>
@@ -5847,35 +5888,35 @@
       <c r="B18" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C18" s="13" t="n">
+      <c r="C18" s="12" t="n">
         <f aca="false">Dados!C18/Dados!$L18</f>
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="n">
+      <c r="D18" s="12" t="n">
         <f aca="false">Dados!D18/Dados!$L18</f>
         <v>0.899663383576015</v>
       </c>
-      <c r="E18" s="13" t="n">
+      <c r="E18" s="12" t="n">
         <f aca="false">Dados!E18/Dados!$L18</f>
         <v>0.952337651475987</v>
       </c>
-      <c r="F18" s="13" t="n">
+      <c r="F18" s="12" t="n">
         <f aca="false">Dados!F18/Dados!$L18</f>
         <v>0.897597770035469</v>
       </c>
-      <c r="G18" s="13" t="n">
+      <c r="G18" s="12" t="n">
         <f aca="false">Dados!G18/Dados!$L18</f>
         <v>0.887624168351994</v>
       </c>
-      <c r="H18" s="13" t="n">
+      <c r="H18" s="12" t="n">
         <f aca="false">Dados!H18/Dados!$L18</f>
         <v>0.973148988551</v>
       </c>
-      <c r="I18" s="13" t="n">
+      <c r="I18" s="12" t="n">
         <f aca="false">Dados!I18/Dados!$L18</f>
         <v>0.908201439979613</v>
       </c>
-      <c r="J18" s="13" t="n">
+      <c r="J18" s="12" t="n">
         <f aca="false">Dados!J18/Dados!$L18</f>
         <v>0.933826274042928</v>
       </c>
@@ -5887,35 +5928,35 @@
       <c r="B19" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C19" s="13" t="n">
+      <c r="C19" s="12" t="n">
         <f aca="false">Dados!C19/Dados!$L19</f>
         <v>1</v>
       </c>
-      <c r="D19" s="13" t="n">
+      <c r="D19" s="12" t="n">
         <f aca="false">Dados!D19/Dados!$L19</f>
         <v>0.901211259496529</v>
       </c>
-      <c r="E19" s="13" t="n">
+      <c r="E19" s="12" t="n">
         <f aca="false">Dados!E19/Dados!$L19</f>
         <v>0.952782068274178</v>
       </c>
-      <c r="F19" s="13" t="n">
+      <c r="F19" s="12" t="n">
         <f aca="false">Dados!F19/Dados!$L19</f>
         <v>0.899019623602098</v>
       </c>
-      <c r="G19" s="13" t="n">
+      <c r="G19" s="12" t="n">
         <f aca="false">Dados!G19/Dados!$L19</f>
         <v>0.889257652386498</v>
       </c>
-      <c r="H19" s="13" t="n">
+      <c r="H19" s="12" t="n">
         <f aca="false">Dados!H19/Dados!$L19</f>
         <v>0.976713832089536</v>
       </c>
-      <c r="I19" s="13" t="n">
+      <c r="I19" s="12" t="n">
         <f aca="false">Dados!I19/Dados!$L19</f>
         <v>0.910867433646682</v>
       </c>
-      <c r="J19" s="13" t="n">
+      <c r="J19" s="12" t="n">
         <f aca="false">Dados!J19/Dados!$L19</f>
         <v>0.936935889024139</v>
       </c>
@@ -5927,35 +5968,35 @@
       <c r="B20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C20" s="13" t="n">
+      <c r="C20" s="12" t="n">
         <f aca="false">Dados!C20/Dados!$L20</f>
         <v>0.994669463957871</v>
       </c>
-      <c r="D20" s="13" t="n">
+      <c r="D20" s="12" t="n">
         <f aca="false">Dados!D20/Dados!$L20</f>
         <v>0.918954968492467</v>
       </c>
-      <c r="E20" s="13" t="n">
+      <c r="E20" s="12" t="n">
         <f aca="false">Dados!E20/Dados!$L20</f>
         <v>0.957276497753005</v>
       </c>
-      <c r="F20" s="13" t="n">
+      <c r="F20" s="12" t="n">
         <f aca="false">Dados!F20/Dados!$L20</f>
         <v>0.90863995717648</v>
       </c>
-      <c r="G20" s="13" t="n">
+      <c r="G20" s="12" t="n">
         <f aca="false">Dados!G20/Dados!$L20</f>
         <v>0.897897670830998</v>
       </c>
-      <c r="H20" s="13" t="n">
+      <c r="H20" s="12" t="n">
         <f aca="false">Dados!H20/Dados!$L20</f>
         <v>1</v>
       </c>
-      <c r="I20" s="13" t="n">
+      <c r="I20" s="12" t="n">
         <f aca="false">Dados!I20/Dados!$L20</f>
         <v>0.941308093701254</v>
       </c>
-      <c r="J20" s="13" t="n">
+      <c r="J20" s="12" t="n">
         <f aca="false">Dados!J20/Dados!$L20</f>
         <v>0.967887561055721</v>
       </c>
@@ -5967,35 +6008,35 @@
       <c r="B21" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="12" t="n">
         <f aca="false">Dados!C21/Dados!$L21</f>
         <v>1</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="12" t="n">
         <f aca="false">Dados!D21/Dados!$L21</f>
         <v>0.890776901815787</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="12" t="n">
         <f aca="false">Dados!E21/Dados!$L21</f>
         <v>0.94786549294239</v>
       </c>
-      <c r="F21" s="13" t="n">
+      <c r="F21" s="12" t="n">
         <f aca="false">Dados!F21/Dados!$L21</f>
         <v>0.892913871214885</v>
       </c>
-      <c r="G21" s="13" t="n">
+      <c r="G21" s="12" t="n">
         <f aca="false">Dados!G21/Dados!$L21</f>
         <v>0.881852935245809</v>
       </c>
-      <c r="H21" s="13" t="n">
+      <c r="H21" s="12" t="n">
         <f aca="false">Dados!H21/Dados!$L21</f>
         <v>0.960714505347446</v>
       </c>
-      <c r="I21" s="13" t="n">
+      <c r="I21" s="12" t="n">
         <f aca="false">Dados!I21/Dados!$L21</f>
         <v>0.895733435975814</v>
       </c>
-      <c r="J21" s="13" t="n">
+      <c r="J21" s="12" t="n">
         <f aca="false">Dados!J21/Dados!$L21</f>
         <v>0.920088320881562</v>
       </c>
@@ -6007,35 +6048,35 @@
       <c r="B22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="12" t="n">
         <f aca="false">Dados!C22/Dados!$L22</f>
         <v>0.995792540011785</v>
       </c>
-      <c r="D22" s="13" t="n">
+      <c r="D22" s="12" t="n">
         <f aca="false">Dados!D22/Dados!$L22</f>
         <v>0.921968043521077</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="12" t="n">
         <f aca="false">Dados!E22/Dados!$L22</f>
         <v>0.95777617949476</v>
       </c>
-      <c r="F22" s="13" t="n">
+      <c r="F22" s="12" t="n">
         <f aca="false">Dados!F22/Dados!$L22</f>
         <v>0.908200836517977</v>
       </c>
-      <c r="G22" s="13" t="n">
+      <c r="G22" s="12" t="n">
         <f aca="false">Dados!G22/Dados!$L22</f>
         <v>0.897877737767218</v>
       </c>
-      <c r="H22" s="13" t="n">
+      <c r="H22" s="12" t="n">
         <f aca="false">Dados!H22/Dados!$L22</f>
         <v>1</v>
       </c>
-      <c r="I22" s="13" t="n">
+      <c r="I22" s="12" t="n">
         <f aca="false">Dados!I22/Dados!$L22</f>
         <v>0.943183044365457</v>
       </c>
-      <c r="J22" s="13" t="n">
+      <c r="J22" s="12" t="n">
         <f aca="false">Dados!J22/Dados!$L22</f>
         <v>0.975106229439544</v>
       </c>
@@ -6047,35 +6088,35 @@
       <c r="B23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="13" t="n">
+      <c r="C23" s="12" t="n">
         <f aca="false">Dados!C23/Dados!$L23</f>
         <v>1</v>
       </c>
-      <c r="D23" s="13" t="n">
+      <c r="D23" s="12" t="n">
         <f aca="false">Dados!D23/Dados!$L23</f>
         <v>0.883991383475423</v>
       </c>
-      <c r="E23" s="13" t="n">
+      <c r="E23" s="12" t="n">
         <f aca="false">Dados!E23/Dados!$L23</f>
         <v>0.945571963439228</v>
       </c>
-      <c r="F23" s="13" t="n">
+      <c r="F23" s="12" t="n">
         <f aca="false">Dados!F23/Dados!$L23</f>
         <v>0.888163333437568</v>
       </c>
-      <c r="G23" s="13" t="n">
+      <c r="G23" s="12" t="n">
         <f aca="false">Dados!G23/Dados!$L23</f>
         <v>0.878617947158383</v>
       </c>
-      <c r="H23" s="13" t="n">
+      <c r="H23" s="12" t="n">
         <f aca="false">Dados!H23/Dados!$L23</f>
         <v>0.953557795765818</v>
       </c>
-      <c r="I23" s="13" t="n">
+      <c r="I23" s="12" t="n">
         <f aca="false">Dados!I23/Dados!$L23</f>
         <v>0.887596723395203</v>
       </c>
-      <c r="J23" s="13" t="n">
+      <c r="J23" s="12" t="n">
         <f aca="false">Dados!J23/Dados!$L23</f>
         <v>0.911456005031444</v>
       </c>
@@ -6087,35 +6128,35 @@
       <c r="B24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="13" t="n">
+      <c r="C24" s="12" t="n">
         <f aca="false">Dados!C24/Dados!$L24</f>
         <v>0.899656738901298</v>
       </c>
-      <c r="D24" s="13" t="n">
+      <c r="D24" s="12" t="n">
         <f aca="false">Dados!D24/Dados!$L24</f>
         <v>0.908117784975453</v>
       </c>
-      <c r="E24" s="13" t="n">
+      <c r="E24" s="12" t="n">
         <f aca="false">Dados!E24/Dados!$L24</f>
         <v>0.895807986659827</v>
       </c>
-      <c r="F24" s="13" t="n">
+      <c r="F24" s="12" t="n">
         <f aca="false">Dados!F24/Dados!$L24</f>
         <v>0.86839736094008</v>
       </c>
-      <c r="G24" s="13" t="n">
+      <c r="G24" s="12" t="n">
         <f aca="false">Dados!G24/Dados!$L24</f>
         <v>0.858575540355353</v>
       </c>
-      <c r="H24" s="13" t="n">
+      <c r="H24" s="12" t="n">
         <f aca="false">Dados!H24/Dados!$L24</f>
         <v>1</v>
       </c>
-      <c r="I24" s="13" t="n">
+      <c r="I24" s="12" t="n">
         <f aca="false">Dados!I24/Dados!$L24</f>
         <v>0.976942226584848</v>
       </c>
-      <c r="J24" s="13" t="n">
+      <c r="J24" s="12" t="n">
         <f aca="false">Dados!J24/Dados!$L24</f>
         <v>0.997327234855932</v>
       </c>
@@ -6127,35 +6168,35 @@
       <c r="B25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C25" s="13" t="n">
+      <c r="C25" s="12" t="n">
         <f aca="false">Dados!C25/Dados!$L25</f>
         <v>1</v>
       </c>
-      <c r="D25" s="13" t="n">
+      <c r="D25" s="12" t="n">
         <f aca="false">Dados!D25/Dados!$L25</f>
         <v>0.899536515560366</v>
       </c>
-      <c r="E25" s="13" t="n">
+      <c r="E25" s="12" t="n">
         <f aca="false">Dados!E25/Dados!$L25</f>
         <v>0.953476791168282</v>
       </c>
-      <c r="F25" s="13" t="n">
+      <c r="F25" s="12" t="n">
         <f aca="false">Dados!F25/Dados!$L25</f>
         <v>0.897962773652895</v>
       </c>
-      <c r="G25" s="13" t="n">
+      <c r="G25" s="12" t="n">
         <f aca="false">Dados!G25/Dados!$L25</f>
         <v>0.887810679592212</v>
       </c>
-      <c r="H25" s="13" t="n">
+      <c r="H25" s="12" t="n">
         <f aca="false">Dados!H25/Dados!$L25</f>
         <v>0.97420602117887</v>
       </c>
-      <c r="I25" s="13" t="n">
+      <c r="I25" s="12" t="n">
         <f aca="false">Dados!I25/Dados!$L25</f>
         <v>0.909211796142359</v>
       </c>
-      <c r="J25" s="13" t="n">
+      <c r="J25" s="12" t="n">
         <f aca="false">Dados!J25/Dados!$L25</f>
         <v>0.937302030876462</v>
       </c>
@@ -6167,35 +6208,35 @@
       <c r="B26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="12" t="n">
         <f aca="false">Dados!C26/Dados!$L26</f>
         <v>1</v>
       </c>
-      <c r="D26" s="13" t="n">
+      <c r="D26" s="12" t="n">
         <f aca="false">Dados!D26/Dados!$L26</f>
         <v>0.877676294032382</v>
       </c>
-      <c r="E26" s="13" t="n">
+      <c r="E26" s="12" t="n">
         <f aca="false">Dados!E26/Dados!$L26</f>
         <v>0.941602503023384</v>
       </c>
-      <c r="F26" s="13" t="n">
+      <c r="F26" s="12" t="n">
         <f aca="false">Dados!F26/Dados!$L26</f>
         <v>0.882756099093375</v>
       </c>
-      <c r="G26" s="13" t="n">
+      <c r="G26" s="12" t="n">
         <f aca="false">Dados!G26/Dados!$L26</f>
         <v>0.873466048693114</v>
       </c>
-      <c r="H26" s="13" t="n">
+      <c r="H26" s="12" t="n">
         <f aca="false">Dados!H26/Dados!$L26</f>
         <v>0.942869480163889</v>
       </c>
-      <c r="I26" s="13" t="n">
+      <c r="I26" s="12" t="n">
         <f aca="false">Dados!I26/Dados!$L26</f>
         <v>0.875434733390164</v>
       </c>
-      <c r="J26" s="13" t="n">
+      <c r="J26" s="12" t="n">
         <f aca="false">Dados!J26/Dados!$L26</f>
         <v>0.899640577024812</v>
       </c>
@@ -6207,35 +6248,35 @@
       <c r="B27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C27" s="13" t="n">
+      <c r="C27" s="12" t="n">
         <f aca="false">Dados!C27/Dados!$L27</f>
         <v>0.87404304906986</v>
       </c>
-      <c r="D27" s="13" t="n">
+      <c r="D27" s="12" t="n">
         <f aca="false">Dados!D27/Dados!$L27</f>
         <v>0.915238875331087</v>
       </c>
-      <c r="E27" s="13" t="n">
+      <c r="E27" s="12" t="n">
         <f aca="false">Dados!E27/Dados!$L27</f>
         <v>0.898125082683825</v>
       </c>
-      <c r="F27" s="13" t="n">
+      <c r="F27" s="12" t="n">
         <f aca="false">Dados!F27/Dados!$L27</f>
         <v>0.897526662894877</v>
       </c>
-      <c r="G27" s="13" t="n">
+      <c r="G27" s="12" t="n">
         <f aca="false">Dados!G27/Dados!$L27</f>
         <v>0.879251496753164</v>
       </c>
-      <c r="H27" s="13" t="n">
+      <c r="H27" s="12" t="n">
         <f aca="false">Dados!H27/Dados!$L27</f>
         <v>0.997076581407328</v>
       </c>
-      <c r="I27" s="13" t="n">
+      <c r="I27" s="12" t="n">
         <f aca="false">Dados!I27/Dados!$L27</f>
         <v>0.957686710633351</v>
       </c>
-      <c r="J27" s="13" t="n">
+      <c r="J27" s="12" t="n">
         <f aca="false">Dados!J27/Dados!$L27</f>
         <v>1</v>
       </c>
@@ -6247,35 +6288,35 @@
       <c r="B28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C28" s="13" t="n">
+      <c r="C28" s="12" t="n">
         <f aca="false">Dados!C28/Dados!$L28</f>
         <v>1</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="12" t="n">
         <f aca="false">Dados!D28/Dados!$L28</f>
         <v>0.897712282922619</v>
       </c>
-      <c r="E28" s="13" t="n">
+      <c r="E28" s="12" t="n">
         <f aca="false">Dados!E28/Dados!$L28</f>
         <v>0.953017653133628</v>
       </c>
-      <c r="F28" s="13" t="n">
+      <c r="F28" s="12" t="n">
         <f aca="false">Dados!F28/Dados!$L28</f>
         <v>0.89614551751593</v>
       </c>
-      <c r="G28" s="13" t="n">
+      <c r="G28" s="12" t="n">
         <f aca="false">Dados!G28/Dados!$L28</f>
         <v>0.887010974322487</v>
       </c>
-      <c r="H28" s="13" t="n">
+      <c r="H28" s="12" t="n">
         <f aca="false">Dados!H28/Dados!$L28</f>
         <v>0.971262502573434</v>
       </c>
-      <c r="I28" s="13" t="n">
+      <c r="I28" s="12" t="n">
         <f aca="false">Dados!I28/Dados!$L28</f>
         <v>0.906262353530139</v>
       </c>
-      <c r="J28" s="13" t="n">
+      <c r="J28" s="12" t="n">
         <f aca="false">Dados!J28/Dados!$L28</f>
         <v>0.932712663191961</v>
       </c>
@@ -6287,35 +6328,35 @@
       <c r="B29" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C29" s="13" t="n">
+      <c r="C29" s="12" t="n">
         <f aca="false">Dados!C29/Dados!$L29</f>
         <v>1</v>
       </c>
-      <c r="D29" s="13" t="n">
+      <c r="D29" s="12" t="n">
         <f aca="false">Dados!D29/Dados!$L29</f>
         <v>0.901990052252141</v>
       </c>
-      <c r="E29" s="13" t="n">
+      <c r="E29" s="12" t="n">
         <f aca="false">Dados!E29/Dados!$L29</f>
         <v>0.954701110716523</v>
       </c>
-      <c r="F29" s="13" t="n">
+      <c r="F29" s="12" t="n">
         <f aca="false">Dados!F29/Dados!$L29</f>
         <v>0.90017301073873</v>
       </c>
-      <c r="G29" s="13" t="n">
+      <c r="G29" s="12" t="n">
         <f aca="false">Dados!G29/Dados!$L29</f>
         <v>0.889013507611615</v>
       </c>
-      <c r="H29" s="13" t="n">
+      <c r="H29" s="12" t="n">
         <f aca="false">Dados!H29/Dados!$L29</f>
         <v>0.976448539876299</v>
       </c>
-      <c r="I29" s="13" t="n">
+      <c r="I29" s="12" t="n">
         <f aca="false">Dados!I29/Dados!$L29</f>
         <v>0.912705126836594</v>
       </c>
-      <c r="J29" s="13" t="n">
+      <c r="J29" s="12" t="n">
         <f aca="false">Dados!J29/Dados!$L29</f>
         <v>0.940652378520647</v>
       </c>
@@ -6327,35 +6368,35 @@
       <c r="B30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C30" s="13" t="n">
+      <c r="C30" s="12" t="n">
         <f aca="false">Dados!C30/Dados!$L30</f>
         <v>1</v>
       </c>
-      <c r="D30" s="13" t="n">
+      <c r="D30" s="12" t="n">
         <f aca="false">Dados!D30/Dados!$L30</f>
         <v>0.919978127817962</v>
       </c>
-      <c r="E30" s="13" t="n">
+      <c r="E30" s="12" t="n">
         <f aca="false">Dados!E30/Dados!$L30</f>
         <v>0.960605514092208</v>
       </c>
-      <c r="F30" s="13" t="n">
+      <c r="F30" s="12" t="n">
         <f aca="false">Dados!F30/Dados!$L30</f>
         <v>0.90908309510562</v>
       </c>
-      <c r="G30" s="13" t="n">
+      <c r="G30" s="12" t="n">
         <f aca="false">Dados!G30/Dados!$L30</f>
         <v>0.899269392375434</v>
       </c>
-      <c r="H30" s="13" t="n">
+      <c r="H30" s="12" t="n">
         <f aca="false">Dados!H30/Dados!$L30</f>
         <v>0.999249438805856</v>
       </c>
-      <c r="I30" s="13" t="n">
+      <c r="I30" s="12" t="n">
         <f aca="false">Dados!I30/Dados!$L30</f>
         <v>0.939836150495961</v>
       </c>
-      <c r="J30" s="13" t="n">
+      <c r="J30" s="12" t="n">
         <f aca="false">Dados!J30/Dados!$L30</f>
         <v>0.966896644346808</v>
       </c>
@@ -6367,82 +6408,82 @@
       <c r="B31" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C31" s="13" t="n">
+      <c r="C31" s="12" t="n">
         <f aca="false">Dados!C31/Dados!$L31</f>
         <v>1</v>
       </c>
-      <c r="D31" s="13" t="n">
+      <c r="D31" s="12" t="n">
         <f aca="false">Dados!D31/Dados!$L31</f>
         <v>0.876693870563457</v>
       </c>
-      <c r="E31" s="13" t="n">
+      <c r="E31" s="12" t="n">
         <f aca="false">Dados!E31/Dados!$L31</f>
         <v>0.940721095222361</v>
       </c>
-      <c r="F31" s="13" t="n">
+      <c r="F31" s="12" t="n">
         <f aca="false">Dados!F31/Dados!$L31</f>
         <v>0.881920210461488</v>
       </c>
-      <c r="G31" s="13" t="n">
+      <c r="G31" s="12" t="n">
         <f aca="false">Dados!G31/Dados!$L31</f>
         <v>0.872876528756479</v>
       </c>
-      <c r="H31" s="13" t="n">
+      <c r="H31" s="12" t="n">
         <f aca="false">Dados!H31/Dados!$L31</f>
         <v>0.943007446166082</v>
       </c>
-      <c r="I31" s="13" t="n">
+      <c r="I31" s="12" t="n">
         <f aca="false">Dados!I31/Dados!$L31</f>
         <v>0.874419129203798</v>
       </c>
-      <c r="J31" s="13" t="n">
+      <c r="J31" s="12" t="n">
         <f aca="false">Dados!J31/Dados!$L31</f>
         <v>0.899380656332171</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="14" t="n">
+      <c r="C32" s="13" t="n">
         <f aca="false">SUM(C2:C31)</f>
         <v>29.31932948461</v>
       </c>
-      <c r="D32" s="14" t="n">
+      <c r="D32" s="13" t="n">
         <f aca="false">SUM(D2:D31)</f>
         <v>27.0488211070195</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E32" s="13" t="n">
         <f aca="false">SUM(E2:E31)</f>
         <v>28.2584820114057</v>
       </c>
-      <c r="F32" s="14" t="n">
+      <c r="F32" s="13" t="n">
         <f aca="false">SUM(F2:F31)</f>
         <v>26.7969420818685</v>
       </c>
-      <c r="G32" s="14" t="n">
+      <c r="G32" s="13" t="n">
         <f aca="false">SUM(G2:G31)</f>
         <v>26.4854051489361</v>
       </c>
-      <c r="H32" s="14" t="n">
+      <c r="H32" s="13" t="n">
         <f aca="false">SUM(H2:H31)</f>
         <v>29.3521359229462</v>
       </c>
-      <c r="I32" s="14" t="n">
+      <c r="I32" s="13" t="n">
         <f aca="false">SUM(I2:I31)</f>
         <v>27.6097182187701</v>
       </c>
-      <c r="J32" s="14" t="n">
+      <c r="J32" s="13" t="n">
         <f aca="false">SUM(J2:J31)</f>
         <v>28.400000884811</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="12"/>
+      <c r="A33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="11"/>
       <c r="C33" s="0" t="n">
         <f aca="false">MEDIAN(C2:C31)</f>
         <v>1</v>
@@ -6477,10 +6518,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="12"/>
+      <c r="A34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="11"/>
       <c r="C34" s="0" t="n">
         <f aca="false">STDEV(C2:C31)</f>
         <v>0.044340706680068</v>
@@ -6515,10 +6556,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="12"/>
+      <c r="A35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="11"/>
       <c r="C35" s="0" t="n">
         <f aca="false">SUM(C2:C31)/COUNT(C2:C31)</f>
         <v>0.977310982820332</v>
@@ -6558,10 +6599,10 @@
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>2</v>
@@ -6573,13 +6614,13 @@
         <v>4</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6589,35 +6630,35 @@
       <c r="B41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C41" s="13" t="n">
+      <c r="C41" s="12" t="n">
         <f aca="false">Dados!C41/Dados!$L41</f>
         <v>1</v>
       </c>
-      <c r="D41" s="13" t="n">
+      <c r="D41" s="12" t="n">
         <f aca="false">Dados!D41/Dados!$L41</f>
         <v>0.83318776556938</v>
       </c>
-      <c r="E41" s="13" t="n">
+      <c r="E41" s="12" t="n">
         <f aca="false">Dados!E41/Dados!$L41</f>
         <v>0.914111347676725</v>
       </c>
-      <c r="F41" s="13" t="n">
+      <c r="F41" s="12" t="n">
         <f aca="false">Dados!F41/Dados!$L41</f>
         <v>0.843546834160305</v>
       </c>
-      <c r="G41" s="13" t="n">
+      <c r="G41" s="12" t="n">
         <f aca="false">Dados!G41/Dados!$L41</f>
         <v>0.83273745579513</v>
       </c>
-      <c r="H41" s="13" t="n">
+      <c r="H41" s="12" t="n">
         <f aca="false">Dados!H41/Dados!$L41</f>
         <v>0.897788752233731</v>
       </c>
-      <c r="I41" s="13" t="n">
+      <c r="I41" s="12" t="n">
         <f aca="false">Dados!I41/Dados!$L41</f>
         <v>0.813690324235996</v>
       </c>
-      <c r="J41" s="13" t="n">
+      <c r="J41" s="12" t="n">
         <f aca="false">Dados!J41/Dados!$L41</f>
         <v>0.845083070814614</v>
       </c>
@@ -6629,35 +6670,35 @@
       <c r="B42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="13" t="n">
+      <c r="C42" s="12" t="n">
         <f aca="false">Dados!C42/Dados!$L42</f>
         <v>1</v>
       </c>
-      <c r="D42" s="13" t="n">
+      <c r="D42" s="12" t="n">
         <f aca="false">Dados!D42/Dados!$L42</f>
         <v>0.831106272610873</v>
       </c>
-      <c r="E42" s="13" t="n">
+      <c r="E42" s="12" t="n">
         <f aca="false">Dados!E42/Dados!$L42</f>
         <v>0.909954581043179</v>
       </c>
-      <c r="F42" s="13" t="n">
+      <c r="F42" s="12" t="n">
         <f aca="false">Dados!F42/Dados!$L42</f>
         <v>0.839675209121184</v>
       </c>
-      <c r="G42" s="13" t="n">
+      <c r="G42" s="12" t="n">
         <f aca="false">Dados!G42/Dados!$L42</f>
         <v>0.829176268728407</v>
       </c>
-      <c r="H42" s="13" t="n">
+      <c r="H42" s="12" t="n">
         <f aca="false">Dados!H42/Dados!$L42</f>
         <v>0.894025241362776</v>
       </c>
-      <c r="I42" s="13" t="n">
+      <c r="I42" s="12" t="n">
         <f aca="false">Dados!I42/Dados!$L42</f>
         <v>0.809519424822348</v>
       </c>
-      <c r="J42" s="13" t="n">
+      <c r="J42" s="12" t="n">
         <f aca="false">Dados!J42/Dados!$L42</f>
         <v>0.834676569247557</v>
       </c>
@@ -6669,35 +6710,35 @@
       <c r="B43" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="13" t="n">
+      <c r="C43" s="12" t="n">
         <f aca="false">Dados!C43/Dados!$L43</f>
         <v>1</v>
       </c>
-      <c r="D43" s="13" t="n">
+      <c r="D43" s="12" t="n">
         <f aca="false">Dados!D43/Dados!$L43</f>
         <v>0.838706711500068</v>
       </c>
-      <c r="E43" s="13" t="n">
+      <c r="E43" s="12" t="n">
         <f aca="false">Dados!E43/Dados!$L43</f>
         <v>0.920750333998829</v>
       </c>
-      <c r="F43" s="13" t="n">
+      <c r="F43" s="12" t="n">
         <f aca="false">Dados!F43/Dados!$L43</f>
         <v>0.858643439362325</v>
       </c>
-      <c r="G43" s="13" t="n">
+      <c r="G43" s="12" t="n">
         <f aca="false">Dados!G43/Dados!$L43</f>
         <v>0.845681282555504</v>
       </c>
-      <c r="H43" s="13" t="n">
+      <c r="H43" s="12" t="n">
         <f aca="false">Dados!H43/Dados!$L43</f>
         <v>0.903215395469625</v>
       </c>
-      <c r="I43" s="13" t="n">
+      <c r="I43" s="12" t="n">
         <f aca="false">Dados!I43/Dados!$L43</f>
         <v>0.829463575363646</v>
       </c>
-      <c r="J43" s="13" t="n">
+      <c r="J43" s="12" t="n">
         <f aca="false">Dados!J43/Dados!$L43</f>
         <v>0.884066754732276</v>
       </c>
@@ -6709,35 +6750,35 @@
       <c r="B44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="13" t="n">
+      <c r="C44" s="12" t="n">
         <f aca="false">Dados!C44/Dados!$L44</f>
         <v>1</v>
       </c>
-      <c r="D44" s="13" t="n">
+      <c r="D44" s="12" t="n">
         <f aca="false">Dados!D44/Dados!$L44</f>
         <v>0.834333967162873</v>
       </c>
-      <c r="E44" s="13" t="n">
+      <c r="E44" s="12" t="n">
         <f aca="false">Dados!E44/Dados!$L44</f>
         <v>0.910816926660856</v>
       </c>
-      <c r="F44" s="13" t="n">
+      <c r="F44" s="12" t="n">
         <f aca="false">Dados!F44/Dados!$L44</f>
         <v>0.841514180514239</v>
       </c>
-      <c r="G44" s="13" t="n">
+      <c r="G44" s="12" t="n">
         <f aca="false">Dados!G44/Dados!$L44</f>
         <v>0.829888113059473</v>
       </c>
-      <c r="H44" s="13" t="n">
+      <c r="H44" s="12" t="n">
         <f aca="false">Dados!H44/Dados!$L44</f>
         <v>0.897489445652477</v>
       </c>
-      <c r="I44" s="13" t="n">
+      <c r="I44" s="12" t="n">
         <f aca="false">Dados!I44/Dados!$L44</f>
         <v>0.811101994856985</v>
       </c>
-      <c r="J44" s="13" t="n">
+      <c r="J44" s="12" t="n">
         <f aca="false">Dados!J44/Dados!$L44</f>
         <v>0.838755393496474</v>
       </c>
@@ -6749,35 +6790,35 @@
       <c r="B45" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="13" t="n">
+      <c r="C45" s="12" t="n">
         <f aca="false">Dados!C45/Dados!$L45</f>
         <v>1</v>
       </c>
-      <c r="D45" s="13" t="n">
+      <c r="D45" s="12" t="n">
         <f aca="false">Dados!D45/Dados!$L45</f>
         <v>0.831127339765816</v>
       </c>
-      <c r="E45" s="13" t="n">
+      <c r="E45" s="12" t="n">
         <f aca="false">Dados!E45/Dados!$L45</f>
         <v>0.907791561670315</v>
       </c>
-      <c r="F45" s="13" t="n">
+      <c r="F45" s="12" t="n">
         <f aca="false">Dados!F45/Dados!$L45</f>
         <v>0.837047564417581</v>
       </c>
-      <c r="G45" s="13" t="n">
+      <c r="G45" s="12" t="n">
         <f aca="false">Dados!G45/Dados!$L45</f>
         <v>0.826988842562073</v>
       </c>
-      <c r="H45" s="13" t="n">
+      <c r="H45" s="12" t="n">
         <f aca="false">Dados!H45/Dados!$L45</f>
         <v>0.891192625379675</v>
       </c>
-      <c r="I45" s="13" t="n">
+      <c r="I45" s="12" t="n">
         <f aca="false">Dados!I45/Dados!$L45</f>
         <v>0.807942765929718</v>
       </c>
-      <c r="J45" s="13" t="n">
+      <c r="J45" s="12" t="n">
         <f aca="false">Dados!J45/Dados!$L45</f>
         <v>0.832652462313087</v>
       </c>
@@ -6789,35 +6830,35 @@
       <c r="B46" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="13" t="n">
+      <c r="C46" s="12" t="n">
         <f aca="false">Dados!C46/Dados!$L46</f>
         <v>0.956061949357734</v>
       </c>
-      <c r="D46" s="13" t="n">
+      <c r="D46" s="12" t="n">
         <f aca="false">Dados!D46/Dados!$L46</f>
         <v>0.921884499556712</v>
       </c>
-      <c r="E46" s="13" t="n">
+      <c r="E46" s="12" t="n">
         <f aca="false">Dados!E46/Dados!$L46</f>
         <v>1</v>
       </c>
-      <c r="F46" s="13" t="n">
+      <c r="F46" s="12" t="n">
         <f aca="false">Dados!F46/Dados!$L46</f>
         <v>0.939095409046854</v>
       </c>
-      <c r="G46" s="13" t="n">
+      <c r="G46" s="12" t="n">
         <f aca="false">Dados!G46/Dados!$L46</f>
         <v>0.926897019050171</v>
       </c>
-      <c r="H46" s="13" t="n">
+      <c r="H46" s="12" t="n">
         <f aca="false">Dados!H46/Dados!$L46</f>
         <v>0.990921744016792</v>
       </c>
-      <c r="I46" s="13" t="n">
+      <c r="I46" s="12" t="n">
         <f aca="false">Dados!I46/Dados!$L46</f>
         <v>0.906632085082973</v>
       </c>
-      <c r="J46" s="13" t="n">
+      <c r="J46" s="12" t="n">
         <f aca="false">Dados!J46/Dados!$L46</f>
         <v>0.953078756526841</v>
       </c>
@@ -6829,35 +6870,35 @@
       <c r="B47" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C47" s="13" t="n">
+      <c r="C47" s="12" t="n">
         <f aca="false">Dados!C47/Dados!$L47</f>
         <v>1</v>
       </c>
-      <c r="D47" s="13" t="n">
+      <c r="D47" s="12" t="n">
         <f aca="false">Dados!D47/Dados!$L47</f>
         <v>0.832482224341305</v>
       </c>
-      <c r="E47" s="13" t="n">
+      <c r="E47" s="12" t="n">
         <f aca="false">Dados!E47/Dados!$L47</f>
         <v>0.912510644673718</v>
       </c>
-      <c r="F47" s="13" t="n">
+      <c r="F47" s="12" t="n">
         <f aca="false">Dados!F47/Dados!$L47</f>
         <v>0.841458618170921</v>
       </c>
-      <c r="G47" s="13" t="n">
+      <c r="G47" s="12" t="n">
         <f aca="false">Dados!G47/Dados!$L47</f>
         <v>0.830802188987241</v>
       </c>
-      <c r="H47" s="13" t="n">
+      <c r="H47" s="12" t="n">
         <f aca="false">Dados!H47/Dados!$L47</f>
         <v>0.898410063316133</v>
       </c>
-      <c r="I47" s="13" t="n">
+      <c r="I47" s="12" t="n">
         <f aca="false">Dados!I47/Dados!$L47</f>
         <v>0.811194869356928</v>
       </c>
-      <c r="J47" s="13" t="n">
+      <c r="J47" s="12" t="n">
         <f aca="false">Dados!J47/Dados!$L47</f>
         <v>0.840156750167665</v>
       </c>
@@ -6869,35 +6910,35 @@
       <c r="B48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C48" s="13" t="n">
+      <c r="C48" s="12" t="n">
         <f aca="false">Dados!C48/Dados!$L48</f>
         <v>1</v>
       </c>
-      <c r="D48" s="13" t="n">
+      <c r="D48" s="12" t="n">
         <f aca="false">Dados!D48/Dados!$L48</f>
         <v>0.834216842444001</v>
       </c>
-      <c r="E48" s="13" t="n">
+      <c r="E48" s="12" t="n">
         <f aca="false">Dados!E48/Dados!$L48</f>
         <v>0.911103575330249</v>
       </c>
-      <c r="F48" s="13" t="n">
+      <c r="F48" s="12" t="n">
         <f aca="false">Dados!F48/Dados!$L48</f>
         <v>0.841574981697101</v>
       </c>
-      <c r="G48" s="13" t="n">
+      <c r="G48" s="12" t="n">
         <f aca="false">Dados!G48/Dados!$L48</f>
         <v>0.830201023074045</v>
       </c>
-      <c r="H48" s="13" t="n">
+      <c r="H48" s="12" t="n">
         <f aca="false">Dados!H48/Dados!$L48</f>
         <v>0.89832636164326</v>
       </c>
-      <c r="I48" s="13" t="n">
+      <c r="I48" s="12" t="n">
         <f aca="false">Dados!I48/Dados!$L48</f>
         <v>0.811201020320251</v>
       </c>
-      <c r="J48" s="13" t="n">
+      <c r="J48" s="12" t="n">
         <f aca="false">Dados!J48/Dados!$L48</f>
         <v>0.840475824240238</v>
       </c>
@@ -6909,35 +6950,35 @@
       <c r="B49" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C49" s="13" t="n">
+      <c r="C49" s="12" t="n">
         <f aca="false">Dados!C49/Dados!$L49</f>
         <v>1</v>
       </c>
-      <c r="D49" s="13" t="n">
+      <c r="D49" s="12" t="n">
         <f aca="false">Dados!D49/Dados!$L49</f>
         <v>0.835900358514628</v>
       </c>
-      <c r="E49" s="13" t="n">
+      <c r="E49" s="12" t="n">
         <f aca="false">Dados!E49/Dados!$L49</f>
         <v>0.912247297917938</v>
       </c>
-      <c r="F49" s="13" t="n">
+      <c r="F49" s="12" t="n">
         <f aca="false">Dados!F49/Dados!$L49</f>
         <v>0.843358844377235</v>
       </c>
-      <c r="G49" s="13" t="n">
+      <c r="G49" s="12" t="n">
         <f aca="false">Dados!G49/Dados!$L49</f>
         <v>0.83185216007357</v>
       </c>
-      <c r="H49" s="13" t="n">
+      <c r="H49" s="12" t="n">
         <f aca="false">Dados!H49/Dados!$L49</f>
         <v>0.900538770364446</v>
       </c>
-      <c r="I49" s="13" t="n">
+      <c r="I49" s="12" t="n">
         <f aca="false">Dados!I49/Dados!$L49</f>
         <v>0.813440169936905</v>
       </c>
-      <c r="J49" s="13" t="n">
+      <c r="J49" s="12" t="n">
         <f aca="false">Dados!J49/Dados!$L49</f>
         <v>0.844241773673272</v>
       </c>
@@ -6949,35 +6990,35 @@
       <c r="B50" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C50" s="13" t="n">
+      <c r="C50" s="12" t="n">
         <f aca="false">Dados!C50/Dados!$L50</f>
         <v>1</v>
       </c>
-      <c r="D50" s="13" t="n">
+      <c r="D50" s="12" t="n">
         <f aca="false">Dados!D50/Dados!$L50</f>
         <v>0.832355117799709</v>
       </c>
-      <c r="E50" s="13" t="n">
+      <c r="E50" s="12" t="n">
         <f aca="false">Dados!E50/Dados!$L50</f>
         <v>0.909149195923872</v>
       </c>
-      <c r="F50" s="13" t="n">
+      <c r="F50" s="12" t="n">
         <f aca="false">Dados!F50/Dados!$L50</f>
         <v>0.839833537009898</v>
       </c>
-      <c r="G50" s="13" t="n">
+      <c r="G50" s="12" t="n">
         <f aca="false">Dados!G50/Dados!$L50</f>
         <v>0.828319522277023</v>
       </c>
-      <c r="H50" s="13" t="n">
+      <c r="H50" s="12" t="n">
         <f aca="false">Dados!H50/Dados!$L50</f>
         <v>0.894783303552736</v>
       </c>
-      <c r="I50" s="13" t="n">
+      <c r="I50" s="12" t="n">
         <f aca="false">Dados!I50/Dados!$L50</f>
         <v>0.80911529716492</v>
       </c>
-      <c r="J50" s="13" t="n">
+      <c r="J50" s="12" t="n">
         <f aca="false">Dados!J50/Dados!$L50</f>
         <v>0.835878580366228</v>
       </c>
@@ -6989,35 +7030,35 @@
       <c r="B51" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C51" s="13" t="n">
+      <c r="C51" s="12" t="n">
         <f aca="false">Dados!C51/Dados!$L51</f>
         <v>1</v>
       </c>
-      <c r="D51" s="13" t="n">
+      <c r="D51" s="12" t="n">
         <f aca="false">Dados!D51/Dados!$L51</f>
         <v>0.835481130726595</v>
       </c>
-      <c r="E51" s="13" t="n">
+      <c r="E51" s="12" t="n">
         <f aca="false">Dados!E51/Dados!$L51</f>
         <v>0.91177349582692</v>
       </c>
-      <c r="F51" s="13" t="n">
+      <c r="F51" s="12" t="n">
         <f aca="false">Dados!F51/Dados!$L51</f>
         <v>0.842242725496298</v>
       </c>
-      <c r="G51" s="13" t="n">
+      <c r="G51" s="12" t="n">
         <f aca="false">Dados!G51/Dados!$L51</f>
         <v>0.83139636267806</v>
       </c>
-      <c r="H51" s="13" t="n">
+      <c r="H51" s="12" t="n">
         <f aca="false">Dados!H51/Dados!$L51</f>
         <v>0.900245310366676</v>
       </c>
-      <c r="I51" s="13" t="n">
+      <c r="I51" s="12" t="n">
         <f aca="false">Dados!I51/Dados!$L51</f>
         <v>0.812895755710125</v>
       </c>
-      <c r="J51" s="13" t="n">
+      <c r="J51" s="12" t="n">
         <f aca="false">Dados!J51/Dados!$L51</f>
         <v>0.843477968325525</v>
       </c>
@@ -7029,35 +7070,35 @@
       <c r="B52" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="13" t="n">
+      <c r="C52" s="12" t="n">
         <f aca="false">Dados!C52/Dados!$L52</f>
         <v>1</v>
       </c>
-      <c r="D52" s="13" t="n">
+      <c r="D52" s="12" t="n">
         <f aca="false">Dados!D52/Dados!$L52</f>
         <v>0.831509841288483</v>
       </c>
-      <c r="E52" s="13" t="n">
+      <c r="E52" s="12" t="n">
         <f aca="false">Dados!E52/Dados!$L52</f>
         <v>0.908415939948663</v>
       </c>
-      <c r="F52" s="13" t="n">
+      <c r="F52" s="12" t="n">
         <f aca="false">Dados!F52/Dados!$L52</f>
         <v>0.83775624545498</v>
       </c>
-      <c r="G52" s="13" t="n">
+      <c r="G52" s="12" t="n">
         <f aca="false">Dados!G52/Dados!$L52</f>
         <v>0.827869269478502</v>
       </c>
-      <c r="H52" s="13" t="n">
+      <c r="H52" s="12" t="n">
         <f aca="false">Dados!H52/Dados!$L52</f>
         <v>0.892079813645652</v>
       </c>
-      <c r="I52" s="13" t="n">
+      <c r="I52" s="12" t="n">
         <f aca="false">Dados!I52/Dados!$L52</f>
         <v>0.808338562294327</v>
       </c>
-      <c r="J52" s="13" t="n">
+      <c r="J52" s="12" t="n">
         <f aca="false">Dados!J52/Dados!$L52</f>
         <v>0.833905333995823</v>
       </c>
@@ -7069,35 +7110,35 @@
       <c r="B53" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="13" t="n">
+      <c r="C53" s="12" t="n">
         <f aca="false">Dados!C53/Dados!$L53</f>
         <v>1</v>
       </c>
-      <c r="D53" s="13" t="n">
+      <c r="D53" s="12" t="n">
         <f aca="false">Dados!D53/Dados!$L53</f>
         <v>0.841885503694985</v>
       </c>
-      <c r="E53" s="13" t="n">
+      <c r="E53" s="12" t="n">
         <f aca="false">Dados!E53/Dados!$L53</f>
         <v>0.919715592258861</v>
       </c>
-      <c r="F53" s="13" t="n">
+      <c r="F53" s="12" t="n">
         <f aca="false">Dados!F53/Dados!$L53</f>
         <v>0.857028189939607</v>
       </c>
-      <c r="G53" s="13" t="n">
+      <c r="G53" s="12" t="n">
         <f aca="false">Dados!G53/Dados!$L53</f>
         <v>0.844361047330542</v>
       </c>
-      <c r="H53" s="13" t="n">
+      <c r="H53" s="12" t="n">
         <f aca="false">Dados!H53/Dados!$L53</f>
         <v>0.90255079398769</v>
       </c>
-      <c r="I53" s="13" t="n">
+      <c r="I53" s="12" t="n">
         <f aca="false">Dados!I53/Dados!$L53</f>
         <v>0.828153279178806</v>
       </c>
-      <c r="J53" s="13" t="n">
+      <c r="J53" s="12" t="n">
         <f aca="false">Dados!J53/Dados!$L53</f>
         <v>0.856065371331545</v>
       </c>
@@ -7109,35 +7150,35 @@
       <c r="B54" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="13" t="n">
+      <c r="C54" s="12" t="n">
         <f aca="false">Dados!C54/Dados!$L54</f>
         <v>1</v>
       </c>
-      <c r="D54" s="13" t="n">
+      <c r="D54" s="12" t="n">
         <f aca="false">Dados!D54/Dados!$L54</f>
         <v>0.832954464640549</v>
       </c>
-      <c r="E54" s="13" t="n">
+      <c r="E54" s="12" t="n">
         <f aca="false">Dados!E54/Dados!$L54</f>
         <v>0.911729172331569</v>
       </c>
-      <c r="F54" s="13" t="n">
+      <c r="F54" s="12" t="n">
         <f aca="false">Dados!F54/Dados!$L54</f>
         <v>0.841681691731682</v>
       </c>
-      <c r="G54" s="13" t="n">
+      <c r="G54" s="12" t="n">
         <f aca="false">Dados!G54/Dados!$L54</f>
         <v>0.830132820180301</v>
       </c>
-      <c r="H54" s="13" t="n">
+      <c r="H54" s="12" t="n">
         <f aca="false">Dados!H54/Dados!$L54</f>
         <v>0.899214373862662</v>
       </c>
-      <c r="I54" s="13" t="n">
+      <c r="I54" s="12" t="n">
         <f aca="false">Dados!I54/Dados!$L54</f>
         <v>0.811322135999498</v>
       </c>
-      <c r="J54" s="13" t="n">
+      <c r="J54" s="12" t="n">
         <f aca="false">Dados!J54/Dados!$L54</f>
         <v>0.839257461984145</v>
       </c>
@@ -7149,35 +7190,35 @@
       <c r="B55" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C55" s="13" t="n">
+      <c r="C55" s="12" t="n">
         <f aca="false">Dados!C55/Dados!$L55</f>
         <v>1</v>
       </c>
-      <c r="D55" s="13" t="n">
+      <c r="D55" s="12" t="n">
         <f aca="false">Dados!D55/Dados!$L55</f>
         <v>0.830921469796171</v>
       </c>
-      <c r="E55" s="13" t="n">
+      <c r="E55" s="12" t="n">
         <f aca="false">Dados!E55/Dados!$L55</f>
         <v>0.908899642174208</v>
       </c>
-      <c r="F55" s="13" t="n">
+      <c r="F55" s="12" t="n">
         <f aca="false">Dados!F55/Dados!$L55</f>
         <v>0.837906159626608</v>
       </c>
-      <c r="G55" s="13" t="n">
+      <c r="G55" s="12" t="n">
         <f aca="false">Dados!G55/Dados!$L55</f>
         <v>0.827939505310194</v>
       </c>
-      <c r="H55" s="13" t="n">
+      <c r="H55" s="12" t="n">
         <f aca="false">Dados!H55/Dados!$L55</f>
         <v>0.892318805622764</v>
       </c>
-      <c r="I55" s="13" t="n">
+      <c r="I55" s="12" t="n">
         <f aca="false">Dados!I55/Dados!$L55</f>
         <v>0.808554249523189</v>
       </c>
-      <c r="J55" s="13" t="n">
+      <c r="J55" s="12" t="n">
         <f aca="false">Dados!J55/Dados!$L55</f>
         <v>0.833982509057543</v>
       </c>
@@ -7189,35 +7230,35 @@
       <c r="B56" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="13" t="n">
+      <c r="C56" s="12" t="n">
         <f aca="false">Dados!C56/Dados!$L56</f>
         <v>1</v>
       </c>
-      <c r="D56" s="13" t="n">
+      <c r="D56" s="12" t="n">
         <f aca="false">Dados!D56/Dados!$L56</f>
         <v>0.89236446210616</v>
       </c>
-      <c r="E56" s="13" t="n">
+      <c r="E56" s="12" t="n">
         <f aca="false">Dados!E56/Dados!$L56</f>
         <v>0.980681358368412</v>
       </c>
-      <c r="F56" s="13" t="n">
+      <c r="F56" s="12" t="n">
         <f aca="false">Dados!F56/Dados!$L56</f>
         <v>0.909612817895773</v>
       </c>
-      <c r="G56" s="13" t="n">
+      <c r="G56" s="12" t="n">
         <f aca="false">Dados!G56/Dados!$L56</f>
         <v>0.898339785361847</v>
       </c>
-      <c r="H56" s="13" t="n">
+      <c r="H56" s="12" t="n">
         <f aca="false">Dados!H56/Dados!$L56</f>
         <v>0.959349200693316</v>
       </c>
-      <c r="I56" s="13" t="n">
+      <c r="I56" s="12" t="n">
         <f aca="false">Dados!I56/Dados!$L56</f>
         <v>0.879192660993713</v>
       </c>
-      <c r="J56" s="13" t="n">
+      <c r="J56" s="12" t="n">
         <f aca="false">Dados!J56/Dados!$L56</f>
         <v>0.927277888163497</v>
       </c>
@@ -7229,35 +7270,35 @@
       <c r="B57" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C57" s="13" t="n">
+      <c r="C57" s="12" t="n">
         <f aca="false">Dados!C57/Dados!$L57</f>
         <v>1</v>
       </c>
-      <c r="D57" s="13" t="n">
+      <c r="D57" s="12" t="n">
         <f aca="false">Dados!D57/Dados!$L57</f>
         <v>0.833555648308412</v>
       </c>
-      <c r="E57" s="13" t="n">
+      <c r="E57" s="12" t="n">
         <f aca="false">Dados!E57/Dados!$L57</f>
         <v>0.911681241188884</v>
       </c>
-      <c r="F57" s="13" t="n">
+      <c r="F57" s="12" t="n">
         <f aca="false">Dados!F57/Dados!$L57</f>
         <v>0.840643944811402</v>
       </c>
-      <c r="G57" s="13" t="n">
+      <c r="G57" s="12" t="n">
         <f aca="false">Dados!G57/Dados!$L57</f>
         <v>0.829827251048578</v>
       </c>
-      <c r="H57" s="13" t="n">
+      <c r="H57" s="12" t="n">
         <f aca="false">Dados!H57/Dados!$L57</f>
         <v>0.896916875603826</v>
       </c>
-      <c r="I57" s="13" t="n">
+      <c r="I57" s="12" t="n">
         <f aca="false">Dados!I57/Dados!$L57</f>
         <v>0.811202412676916</v>
       </c>
-      <c r="J57" s="13" t="n">
+      <c r="J57" s="12" t="n">
         <f aca="false">Dados!J57/Dados!$L57</f>
         <v>0.839595367286716</v>
       </c>
@@ -7269,35 +7310,35 @@
       <c r="B58" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C58" s="13" t="n">
+      <c r="C58" s="12" t="n">
         <f aca="false">Dados!C58/Dados!$L58</f>
         <v>1</v>
       </c>
-      <c r="D58" s="13" t="n">
+      <c r="D58" s="12" t="n">
         <f aca="false">Dados!D58/Dados!$L58</f>
         <v>0.833216527421725</v>
       </c>
-      <c r="E58" s="13" t="n">
+      <c r="E58" s="12" t="n">
         <f aca="false">Dados!E58/Dados!$L58</f>
         <v>0.910876705212617</v>
       </c>
-      <c r="F58" s="13" t="n">
+      <c r="F58" s="12" t="n">
         <f aca="false">Dados!F58/Dados!$L58</f>
         <v>0.841669202584484</v>
       </c>
-      <c r="G58" s="13" t="n">
+      <c r="G58" s="12" t="n">
         <f aca="false">Dados!G58/Dados!$L58</f>
         <v>0.82998092682417</v>
       </c>
-      <c r="H58" s="13" t="n">
+      <c r="H58" s="12" t="n">
         <f aca="false">Dados!H58/Dados!$L58</f>
         <v>0.897088612653154</v>
       </c>
-      <c r="I58" s="13" t="n">
+      <c r="I58" s="12" t="n">
         <f aca="false">Dados!I58/Dados!$L58</f>
         <v>0.810769812434297</v>
       </c>
-      <c r="J58" s="13" t="n">
+      <c r="J58" s="12" t="n">
         <f aca="false">Dados!J58/Dados!$L58</f>
         <v>0.838797083540817</v>
       </c>
@@ -7309,35 +7350,35 @@
       <c r="B59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C59" s="13" t="n">
+      <c r="C59" s="12" t="n">
         <f aca="false">Dados!C59/Dados!$L59</f>
         <v>1</v>
       </c>
-      <c r="D59" s="13" t="n">
+      <c r="D59" s="12" t="n">
         <f aca="false">Dados!D59/Dados!$L59</f>
         <v>0.833901861653841</v>
       </c>
-      <c r="E59" s="13" t="n">
+      <c r="E59" s="12" t="n">
         <f aca="false">Dados!E59/Dados!$L59</f>
         <v>0.912387865499118</v>
       </c>
-      <c r="F59" s="13" t="n">
+      <c r="F59" s="12" t="n">
         <f aca="false">Dados!F59/Dados!$L59</f>
         <v>0.84323864456331</v>
       </c>
-      <c r="G59" s="13" t="n">
+      <c r="G59" s="12" t="n">
         <f aca="false">Dados!G59/Dados!$L59</f>
         <v>0.831719690515761</v>
       </c>
-      <c r="H59" s="13" t="n">
+      <c r="H59" s="12" t="n">
         <f aca="false">Dados!H59/Dados!$L59</f>
         <v>0.899098152312054</v>
       </c>
-      <c r="I59" s="13" t="n">
+      <c r="I59" s="12" t="n">
         <f aca="false">Dados!I59/Dados!$L59</f>
         <v>0.812922177376181</v>
       </c>
-      <c r="J59" s="13" t="n">
+      <c r="J59" s="12" t="n">
         <f aca="false">Dados!J59/Dados!$L59</f>
         <v>0.843064070872263</v>
       </c>
@@ -7349,35 +7390,35 @@
       <c r="B60" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C60" s="13" t="n">
+      <c r="C60" s="12" t="n">
         <f aca="false">Dados!C60/Dados!$L60</f>
         <v>1</v>
       </c>
-      <c r="D60" s="13" t="n">
+      <c r="D60" s="12" t="n">
         <f aca="false">Dados!D60/Dados!$L60</f>
         <v>0.832616463809162</v>
       </c>
-      <c r="E60" s="13" t="n">
+      <c r="E60" s="12" t="n">
         <f aca="false">Dados!E60/Dados!$L60</f>
         <v>0.909078829630359</v>
       </c>
-      <c r="F60" s="13" t="n">
+      <c r="F60" s="12" t="n">
         <f aca="false">Dados!F60/Dados!$L60</f>
         <v>0.840187807735872</v>
       </c>
-      <c r="G60" s="13" t="n">
+      <c r="G60" s="12" t="n">
         <f aca="false">Dados!G60/Dados!$L60</f>
         <v>0.828559313713192</v>
       </c>
-      <c r="H60" s="13" t="n">
+      <c r="H60" s="12" t="n">
         <f aca="false">Dados!H60/Dados!$L60</f>
         <v>0.894439452633183</v>
       </c>
-      <c r="I60" s="13" t="n">
+      <c r="I60" s="12" t="n">
         <f aca="false">Dados!I60/Dados!$L60</f>
         <v>0.80968004606301</v>
       </c>
-      <c r="J60" s="13" t="n">
+      <c r="J60" s="12" t="n">
         <f aca="false">Dados!J60/Dados!$L60</f>
         <v>0.836210567917386</v>
       </c>
@@ -7389,35 +7430,35 @@
       <c r="B61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C61" s="13" t="n">
+      <c r="C61" s="12" t="n">
         <f aca="false">Dados!C61/Dados!$L61</f>
         <v>1</v>
       </c>
-      <c r="D61" s="13" t="n">
+      <c r="D61" s="12" t="n">
         <f aca="false">Dados!D61/Dados!$L61</f>
         <v>0.835551069851983</v>
       </c>
-      <c r="E61" s="13" t="n">
+      <c r="E61" s="12" t="n">
         <f aca="false">Dados!E61/Dados!$L61</f>
         <v>0.912562072675407</v>
       </c>
-      <c r="F61" s="13" t="n">
+      <c r="F61" s="12" t="n">
         <f aca="false">Dados!F61/Dados!$L61</f>
         <v>0.842456016157878</v>
       </c>
-      <c r="G61" s="13" t="n">
+      <c r="G61" s="12" t="n">
         <f aca="false">Dados!G61/Dados!$L61</f>
         <v>0.83175048741141</v>
       </c>
-      <c r="H61" s="13" t="n">
+      <c r="H61" s="12" t="n">
         <f aca="false">Dados!H61/Dados!$L61</f>
         <v>0.899940190619039</v>
       </c>
-      <c r="I61" s="13" t="n">
+      <c r="I61" s="12" t="n">
         <f aca="false">Dados!I61/Dados!$L61</f>
         <v>0.813626609567398</v>
       </c>
-      <c r="J61" s="13" t="n">
+      <c r="J61" s="12" t="n">
         <f aca="false">Dados!J61/Dados!$L61</f>
         <v>0.850429237442074</v>
       </c>
@@ -7429,35 +7470,35 @@
       <c r="B62" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C62" s="13" t="n">
+      <c r="C62" s="12" t="n">
         <f aca="false">Dados!C62/Dados!$L62</f>
         <v>1</v>
       </c>
-      <c r="D62" s="13" t="n">
+      <c r="D62" s="12" t="n">
         <f aca="false">Dados!D62/Dados!$L62</f>
         <v>0.830703761539496</v>
       </c>
-      <c r="E62" s="13" t="n">
+      <c r="E62" s="12" t="n">
         <f aca="false">Dados!E62/Dados!$L62</f>
         <v>0.909182958174313</v>
       </c>
-      <c r="F62" s="13" t="n">
+      <c r="F62" s="12" t="n">
         <f aca="false">Dados!F62/Dados!$L62</f>
         <v>0.83873436323004</v>
       </c>
-      <c r="G62" s="13" t="n">
+      <c r="G62" s="12" t="n">
         <f aca="false">Dados!G62/Dados!$L62</f>
         <v>0.82846244805899</v>
       </c>
-      <c r="H62" s="13" t="n">
+      <c r="H62" s="12" t="n">
         <f aca="false">Dados!H62/Dados!$L62</f>
         <v>0.892525069758499</v>
       </c>
-      <c r="I62" s="13" t="n">
+      <c r="I62" s="12" t="n">
         <f aca="false">Dados!I62/Dados!$L62</f>
         <v>0.808889490445687</v>
       </c>
-      <c r="J62" s="13" t="n">
+      <c r="J62" s="12" t="n">
         <f aca="false">Dados!J62/Dados!$L62</f>
         <v>0.834339700333937</v>
       </c>
@@ -7469,35 +7510,35 @@
       <c r="B63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C63" s="13" t="n">
+      <c r="C63" s="12" t="n">
         <f aca="false">Dados!C63/Dados!$L63</f>
         <v>1</v>
       </c>
-      <c r="D63" s="13" t="n">
+      <c r="D63" s="12" t="n">
         <f aca="false">Dados!D63/Dados!$L63</f>
         <v>0.838866666033236</v>
       </c>
-      <c r="E63" s="13" t="n">
+      <c r="E63" s="12" t="n">
         <f aca="false">Dados!E63/Dados!$L63</f>
         <v>0.919902705065227</v>
       </c>
-      <c r="F63" s="13" t="n">
+      <c r="F63" s="12" t="n">
         <f aca="false">Dados!F63/Dados!$L63</f>
         <v>0.85848717778179</v>
       </c>
-      <c r="G63" s="13" t="n">
+      <c r="G63" s="12" t="n">
         <f aca="false">Dados!G63/Dados!$L63</f>
         <v>0.845772326052049</v>
       </c>
-      <c r="H63" s="13" t="n">
+      <c r="H63" s="12" t="n">
         <f aca="false">Dados!H63/Dados!$L63</f>
         <v>0.903495586572539</v>
       </c>
-      <c r="I63" s="13" t="n">
+      <c r="I63" s="12" t="n">
         <f aca="false">Dados!I63/Dados!$L63</f>
         <v>0.82954003439528</v>
       </c>
-      <c r="J63" s="13" t="n">
+      <c r="J63" s="12" t="n">
         <f aca="false">Dados!J63/Dados!$L63</f>
         <v>0.864256463367127</v>
       </c>
@@ -7509,35 +7550,35 @@
       <c r="B64" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C64" s="13" t="n">
+      <c r="C64" s="12" t="n">
         <f aca="false">Dados!C64/Dados!$L64</f>
         <v>1</v>
       </c>
-      <c r="D64" s="13" t="n">
+      <c r="D64" s="12" t="n">
         <f aca="false">Dados!D64/Dados!$L64</f>
         <v>0.834252480988373</v>
       </c>
-      <c r="E64" s="13" t="n">
+      <c r="E64" s="12" t="n">
         <f aca="false">Dados!E64/Dados!$L64</f>
         <v>0.91137714387826</v>
       </c>
-      <c r="F64" s="13" t="n">
+      <c r="F64" s="12" t="n">
         <f aca="false">Dados!F64/Dados!$L64</f>
         <v>0.841812644909684</v>
       </c>
-      <c r="G64" s="13" t="n">
+      <c r="G64" s="12" t="n">
         <f aca="false">Dados!G64/Dados!$L64</f>
         <v>0.830545484724529</v>
       </c>
-      <c r="H64" s="13" t="n">
+      <c r="H64" s="12" t="n">
         <f aca="false">Dados!H64/Dados!$L64</f>
         <v>0.897044496665722</v>
       </c>
-      <c r="I64" s="13" t="n">
+      <c r="I64" s="12" t="n">
         <f aca="false">Dados!I64/Dados!$L64</f>
         <v>0.811132353523927</v>
       </c>
-      <c r="J64" s="13" t="n">
+      <c r="J64" s="12" t="n">
         <f aca="false">Dados!J64/Dados!$L64</f>
         <v>0.841262726444162</v>
       </c>
@@ -7549,35 +7590,35 @@
       <c r="B65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C65" s="13" t="n">
+      <c r="C65" s="12" t="n">
         <f aca="false">Dados!C65/Dados!$L65</f>
         <v>1</v>
       </c>
-      <c r="D65" s="13" t="n">
+      <c r="D65" s="12" t="n">
         <f aca="false">Dados!D65/Dados!$L65</f>
         <v>0.831506237212287</v>
       </c>
-      <c r="E65" s="13" t="n">
+      <c r="E65" s="12" t="n">
         <f aca="false">Dados!E65/Dados!$L65</f>
         <v>0.906723019395328</v>
       </c>
-      <c r="F65" s="13" t="n">
+      <c r="F65" s="12" t="n">
         <f aca="false">Dados!F65/Dados!$L65</f>
         <v>0.837171075103002</v>
       </c>
-      <c r="G65" s="13" t="n">
+      <c r="G65" s="12" t="n">
         <f aca="false">Dados!G65/Dados!$L65</f>
         <v>0.826699904921569</v>
       </c>
-      <c r="H65" s="13" t="n">
+      <c r="H65" s="12" t="n">
         <f aca="false">Dados!H65/Dados!$L65</f>
         <v>0.890106579673822</v>
       </c>
-      <c r="I65" s="13" t="n">
+      <c r="I65" s="12" t="n">
         <f aca="false">Dados!I65/Dados!$L65</f>
         <v>0.807693849690967</v>
       </c>
-      <c r="J65" s="13" t="n">
+      <c r="J65" s="12" t="n">
         <f aca="false">Dados!J65/Dados!$L65</f>
         <v>0.833003302547632</v>
       </c>
@@ -7589,35 +7630,35 @@
       <c r="B66" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C66" s="13" t="n">
+      <c r="C66" s="12" t="n">
         <f aca="false">Dados!C66/Dados!$L66</f>
         <v>0.966952610900253</v>
       </c>
-      <c r="D66" s="13" t="n">
+      <c r="D66" s="12" t="n">
         <f aca="false">Dados!D66/Dados!$L66</f>
         <v>0.932617436997517</v>
       </c>
-      <c r="E66" s="13" t="n">
+      <c r="E66" s="12" t="n">
         <f aca="false">Dados!E66/Dados!$L66</f>
         <v>0.961216847309462</v>
       </c>
-      <c r="F66" s="13" t="n">
+      <c r="F66" s="12" t="n">
         <f aca="false">Dados!F66/Dados!$L66</f>
         <v>0.948615199773516</v>
       </c>
-      <c r="G66" s="13" t="n">
+      <c r="G66" s="12" t="n">
         <f aca="false">Dados!G66/Dados!$L66</f>
         <v>0.935951407126433</v>
       </c>
-      <c r="H66" s="13" t="n">
+      <c r="H66" s="12" t="n">
         <f aca="false">Dados!H66/Dados!$L66</f>
         <v>1</v>
       </c>
-      <c r="I66" s="13" t="n">
+      <c r="I66" s="12" t="n">
         <f aca="false">Dados!I66/Dados!$L66</f>
         <v>0.915575866521508</v>
       </c>
-      <c r="J66" s="13" t="n">
+      <c r="J66" s="12" t="n">
         <f aca="false">Dados!J66/Dados!$L66</f>
         <v>0.986540980097453</v>
       </c>
@@ -7629,35 +7670,35 @@
       <c r="B67" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C67" s="13" t="n">
+      <c r="C67" s="12" t="n">
         <f aca="false">Dados!C67/Dados!$L67</f>
         <v>1</v>
       </c>
-      <c r="D67" s="13" t="n">
+      <c r="D67" s="12" t="n">
         <f aca="false">Dados!D67/Dados!$L67</f>
         <v>0.833105193206847</v>
       </c>
-      <c r="E67" s="13" t="n">
+      <c r="E67" s="12" t="n">
         <f aca="false">Dados!E67/Dados!$L67</f>
         <v>0.911096576668821</v>
       </c>
-      <c r="F67" s="13" t="n">
+      <c r="F67" s="12" t="n">
         <f aca="false">Dados!F67/Dados!$L67</f>
         <v>0.840190191493085</v>
       </c>
-      <c r="G67" s="13" t="n">
+      <c r="G67" s="12" t="n">
         <f aca="false">Dados!G67/Dados!$L67</f>
         <v>0.82922717260988</v>
       </c>
-      <c r="H67" s="13" t="n">
+      <c r="H67" s="12" t="n">
         <f aca="false">Dados!H67/Dados!$L67</f>
         <v>0.896423297915573</v>
       </c>
-      <c r="I67" s="13" t="n">
+      <c r="I67" s="12" t="n">
         <f aca="false">Dados!I67/Dados!$L67</f>
         <v>0.810593077556073</v>
       </c>
-      <c r="J67" s="13" t="n">
+      <c r="J67" s="12" t="n">
         <f aca="false">Dados!J67/Dados!$L67</f>
         <v>0.838796403557106</v>
       </c>
@@ -7669,35 +7710,35 @@
       <c r="B68" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C68" s="13" t="n">
+      <c r="C68" s="12" t="n">
         <f aca="false">Dados!C68/Dados!$L68</f>
         <v>1</v>
       </c>
-      <c r="D68" s="13" t="n">
+      <c r="D68" s="12" t="n">
         <f aca="false">Dados!D68/Dados!$L68</f>
         <v>0.834432117132963</v>
       </c>
-      <c r="E68" s="13" t="n">
+      <c r="E68" s="12" t="n">
         <f aca="false">Dados!E68/Dados!$L68</f>
         <v>0.91105090947198</v>
       </c>
-      <c r="F68" s="13" t="n">
+      <c r="F68" s="12" t="n">
         <f aca="false">Dados!F68/Dados!$L68</f>
         <v>0.842046663542311</v>
       </c>
-      <c r="G68" s="13" t="n">
+      <c r="G68" s="12" t="n">
         <f aca="false">Dados!G68/Dados!$L68</f>
         <v>0.829628711974503</v>
       </c>
-      <c r="H68" s="13" t="n">
+      <c r="H68" s="12" t="n">
         <f aca="false">Dados!H68/Dados!$L68</f>
         <v>0.897621243127488</v>
       </c>
-      <c r="I68" s="13" t="n">
+      <c r="I68" s="12" t="n">
         <f aca="false">Dados!I68/Dados!$L68</f>
         <v>0.810878290751322</v>
       </c>
-      <c r="J68" s="13" t="n">
+      <c r="J68" s="12" t="n">
         <f aca="false">Dados!J68/Dados!$L68</f>
         <v>0.840795752434134</v>
       </c>
@@ -7709,35 +7750,35 @@
       <c r="B69" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C69" s="13" t="n">
+      <c r="C69" s="12" t="n">
         <f aca="false">Dados!C69/Dados!$L69</f>
         <v>1</v>
       </c>
-      <c r="D69" s="13" t="n">
+      <c r="D69" s="12" t="n">
         <f aca="false">Dados!D69/Dados!$L69</f>
         <v>0.834399347999701</v>
       </c>
-      <c r="E69" s="13" t="n">
+      <c r="E69" s="12" t="n">
         <f aca="false">Dados!E69/Dados!$L69</f>
         <v>0.910939510377471</v>
       </c>
-      <c r="F69" s="13" t="n">
+      <c r="F69" s="12" t="n">
         <f aca="false">Dados!F69/Dados!$L69</f>
         <v>0.842124656299658</v>
       </c>
-      <c r="G69" s="13" t="n">
+      <c r="G69" s="12" t="n">
         <f aca="false">Dados!G69/Dados!$L69</f>
         <v>0.830636590077739</v>
       </c>
-      <c r="H69" s="13" t="n">
+      <c r="H69" s="12" t="n">
         <f aca="false">Dados!H69/Dados!$L69</f>
         <v>0.899387030194317</v>
       </c>
-      <c r="I69" s="13" t="n">
+      <c r="I69" s="12" t="n">
         <f aca="false">Dados!I69/Dados!$L69</f>
         <v>0.812413989620618</v>
       </c>
-      <c r="J69" s="13" t="n">
+      <c r="J69" s="12" t="n">
         <f aca="false">Dados!J69/Dados!$L69</f>
         <v>0.840879501676128</v>
       </c>
@@ -7749,35 +7790,35 @@
       <c r="B70" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C70" s="13" t="n">
+      <c r="C70" s="12" t="n">
         <f aca="false">Dados!C70/Dados!$L70</f>
         <v>1</v>
       </c>
-      <c r="D70" s="13" t="n">
+      <c r="D70" s="12" t="n">
         <f aca="false">Dados!D70/Dados!$L70</f>
         <v>0.830262036276489</v>
       </c>
-      <c r="E70" s="13" t="n">
+      <c r="E70" s="12" t="n">
         <f aca="false">Dados!E70/Dados!$L70</f>
         <v>0.905783997153394</v>
       </c>
-      <c r="F70" s="13" t="n">
+      <c r="F70" s="12" t="n">
         <f aca="false">Dados!F70/Dados!$L70</f>
         <v>0.83590802625351</v>
       </c>
-      <c r="G70" s="13" t="n">
+      <c r="G70" s="12" t="n">
         <f aca="false">Dados!G70/Dados!$L70</f>
         <v>0.826003212408009</v>
       </c>
-      <c r="H70" s="13" t="n">
+      <c r="H70" s="12" t="n">
         <f aca="false">Dados!H70/Dados!$L70</f>
         <v>0.889987108245292</v>
       </c>
-      <c r="I70" s="13" t="n">
+      <c r="I70" s="12" t="n">
         <f aca="false">Dados!I70/Dados!$L70</f>
         <v>0.806916099396205</v>
       </c>
-      <c r="J70" s="13" t="n">
+      <c r="J70" s="12" t="n">
         <f aca="false">Dados!J70/Dados!$L70</f>
         <v>0.831861589332766</v>
       </c>
@@ -7821,10 +7862,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="12"/>
+      <c r="A72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="11"/>
       <c r="C72" s="0" t="n">
         <f aca="false">MEDIAN(C41:C70)</f>
         <v>1</v>
@@ -7859,10 +7900,10 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="12"/>
+      <c r="A73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="11"/>
       <c r="C73" s="0" t="n">
         <f aca="false">STDEV(C41:C70)</f>
         <v>0.00987005855904449</v>
@@ -7897,10 +7938,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="12"/>
+      <c r="A74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="11"/>
       <c r="C74" s="0" t="n">
         <f aca="false">SUM(C41:C70)/COUNT(C41:C70)</f>
         <v>0.997433818675266</v>
